--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -1463,7 +1463,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>116</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -421,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -433,6 +439,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,45 +461,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -514,1085 +530,1526 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>9</v>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -439,7 +439,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1617,19 +1617,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1663,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1686,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1709,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1732,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1755,300 +1755,24 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.4</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.4</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -531,1249 +534,1249 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -1534,7 +1534,7 @@
         <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>96</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -182,6 +182,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -350,22 +356,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -936,7 +942,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -1028,7 +1034,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1137,19 +1143,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1160,16 +1166,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>79</v>
@@ -1183,7 +1189,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>80</v>
@@ -1192,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>81</v>
@@ -1206,7 +1212,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>82</v>
@@ -1215,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>83</v>
@@ -1229,16 +1235,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>85</v>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>86</v>
@@ -1261,7 +1267,7 @@
         <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>87</v>
@@ -1275,7 +1281,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
@@ -1284,7 +1290,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1298,7 +1304,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1307,7 +1313,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1321,7 +1327,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1330,7 +1336,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1344,19 +1350,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1367,16 +1373,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>99</v>
@@ -1390,7 +1396,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>100</v>
@@ -1399,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>101</v>
@@ -1413,7 +1419,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>102</v>
@@ -1422,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>103</v>
@@ -1436,7 +1442,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>104</v>
@@ -1445,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>105</v>
@@ -1459,7 +1465,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>106</v>
@@ -1468,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>107</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>108</v>
@@ -1491,10 +1497,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1511,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1534,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1583,7 +1589,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1597,7 +1603,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>116</v>
@@ -1606,7 +1612,7 @@
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>117</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1643,16 +1649,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>79</v>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>80</v>
@@ -1675,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>81</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1712,16 +1718,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>89</v>
@@ -1735,16 +1741,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>91</v>
@@ -1758,16 +1764,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>93</v>
@@ -1776,6 +1782,29 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Dati accertamento</t>
@@ -436,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1166,19 +1190,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1189,19 +1213,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1212,19 +1236,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1235,19 +1259,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1258,16 +1282,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>87</v>
@@ -1281,16 +1305,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1304,16 +1328,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1327,16 +1351,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1350,7 +1374,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1359,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1373,19 +1397,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1420,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1443,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1466,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1465,16 +1489,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>107</v>
@@ -1488,7 +1512,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>108</v>
@@ -1497,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>109</v>
@@ -1511,7 +1535,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>110</v>
@@ -1520,10 +1544,10 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1558,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1581,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1604,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1627,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1650,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1673,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1696,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1719,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1742,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1765,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1788,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1787,24 +1811,116 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -782,7 +788,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -874,7 +880,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
@@ -989,7 +995,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1081,7 +1087,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1282,19 +1288,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1305,16 +1311,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1328,7 +1334,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1337,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1351,7 +1357,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1360,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1374,16 +1380,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1397,7 +1403,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1406,7 +1412,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1420,7 +1426,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1429,7 +1435,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1443,7 +1449,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1452,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1466,7 +1472,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1475,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1489,19 +1495,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1512,16 +1518,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>109</v>
@@ -1535,7 +1541,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>110</v>
@@ -1544,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>111</v>
@@ -1558,7 +1564,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>112</v>
@@ -1567,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>113</v>
@@ -1581,7 +1587,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>114</v>
@@ -1590,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>115</v>
@@ -1604,7 +1610,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>116</v>
@@ -1613,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -1627,7 +1633,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>118</v>
@@ -1636,10 +1642,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1656,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>124</v>
@@ -1728,7 +1734,7 @@
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>125</v>
@@ -1742,16 +1748,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>127</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1788,16 +1794,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>89</v>
@@ -1811,7 +1817,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>90</v>
@@ -1820,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>91</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1857,16 +1863,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>99</v>
@@ -1880,16 +1886,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>101</v>
@@ -1903,16 +1909,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>103</v>
@@ -1921,6 +1927,29 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1064,7 +1070,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1087,7 +1093,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1311,19 +1317,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1334,16 +1340,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1357,7 +1363,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1366,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1389,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1403,16 +1409,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1435,7 +1441,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1449,7 +1455,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1458,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1481,7 +1487,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1495,7 +1501,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1504,7 +1510,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1518,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1541,16 +1547,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>111</v>
@@ -1564,7 +1570,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>112</v>
@@ -1573,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>113</v>
@@ -1587,7 +1593,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>114</v>
@@ -1596,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>115</v>
@@ -1610,7 +1616,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>116</v>
@@ -1619,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -1633,7 +1639,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>118</v>
@@ -1642,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1656,7 +1662,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1665,10 +1671,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1748,7 +1754,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>126</v>
@@ -1757,7 +1763,7 @@
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>127</v>
@@ -1771,16 +1777,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>129</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1817,16 +1823,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>91</v>
@@ -1840,7 +1846,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>92</v>
@@ -1849,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>93</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1886,16 +1892,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>101</v>
@@ -1909,16 +1915,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>103</v>
@@ -1932,16 +1938,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>105</v>
@@ -1950,6 +1956,29 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -402,6 +402,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1806,7 +1812,7 @@
         <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>110</v>
@@ -1823,19 +1829,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1852,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1921,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1944,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,24 +1967,47 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Dati accertamento</t>
@@ -478,14 +484,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1346,19 +1352,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1369,16 +1375,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1392,7 +1398,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1401,7 +1407,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1415,7 +1421,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1424,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1438,16 +1444,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1461,7 +1467,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1470,7 +1476,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1493,7 +1499,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1516,7 +1522,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1539,7 +1545,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,16 +1582,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>113</v>
@@ -1599,7 +1605,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>114</v>
@@ -1608,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>115</v>
@@ -1622,7 +1628,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>116</v>
@@ -1631,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>118</v>
@@ -1654,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1677,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>122</v>
@@ -1700,10 +1706,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,7 +1789,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>128</v>
@@ -1792,7 +1798,7 @@
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>129</v>
@@ -1806,7 +1812,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
@@ -1815,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1829,16 +1835,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,16 +1881,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>93</v>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>94</v>
@@ -1907,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>95</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,16 +1950,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>103</v>
@@ -1967,16 +1973,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>105</v>
@@ -1990,16 +1996,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>107</v>
@@ -2008,6 +2014,29 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,12 +276,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Dati accertamento</t>
@@ -484,14 +478,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1352,19 +1346,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1375,16 +1369,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1398,7 +1392,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1407,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1421,7 +1415,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1430,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1444,16 +1438,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1467,7 +1461,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1476,7 +1470,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1490,7 +1484,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1499,7 +1493,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1513,7 +1507,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1522,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1536,7 +1530,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1545,7 +1539,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1559,19 +1553,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,16 +1576,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>113</v>
@@ -1605,7 +1599,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>114</v>
@@ -1614,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>115</v>
@@ -1628,7 +1622,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>116</v>
@@ -1637,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -1651,7 +1645,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>118</v>
@@ -1660,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1674,7 +1668,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1683,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1697,7 +1691,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>122</v>
@@ -1706,10 +1700,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1714,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1737,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1760,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,7 +1783,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>128</v>
@@ -1798,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>129</v>
@@ -1812,7 +1806,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
@@ -1821,7 +1815,7 @@
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1835,16 +1829,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1858,19 +1852,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,16 +1875,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>93</v>
@@ -1904,7 +1898,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>94</v>
@@ -1913,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>95</v>
@@ -1927,19 +1921,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,16 +1944,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>103</v>
@@ -1973,16 +1967,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>105</v>
@@ -1996,16 +1990,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>107</v>
@@ -2014,29 +2008,6 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,18 @@
     <t>sesso</t>
   </si>
   <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -354,6 +366,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -484,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -852,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -875,7 +890,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
@@ -921,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
@@ -944,7 +959,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
@@ -1036,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -1059,7 +1074,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1082,7 +1097,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1105,7 +1120,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1375,19 +1390,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1398,19 +1413,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1421,16 +1436,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1444,7 +1459,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1453,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1467,16 +1482,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1490,16 +1505,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1513,7 +1528,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1522,7 +1537,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1536,7 +1551,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1545,7 +1560,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1559,7 +1574,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1568,7 +1583,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1582,19 +1597,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1620,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,16 +1643,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -1646,297 +1661,297 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>97</v>
@@ -1950,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,7 +2011,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>106</v>
@@ -2005,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>107</v>
@@ -2019,7 +2034,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>108</v>
@@ -2028,7 +2043,7 @@
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>109</v>
@@ -2037,6 +2052,52 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>18</v>
       </c>
     </row>
